--- a/messergebnisse/Bleispiel.xlsx
+++ b/messergebnisse/Bleispiel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Messergebnisse der Strommessungen</t>
   </si>
@@ -54,16 +54,34 @@
     <t>Uhrzeit</t>
   </si>
   <si>
-    <t>keine</t>
-  </si>
-  <si>
-    <t>LED fehlt</t>
-  </si>
-  <si>
     <t>Stromwerte LED1</t>
   </si>
   <si>
     <t>Stromwerte LED2</t>
+  </si>
+  <si>
+    <t>Spannung [V]</t>
+  </si>
+  <si>
+    <t>Strombereich LED1 [mA]</t>
+  </si>
+  <si>
+    <t>Strombereich LED2 [mA]</t>
+  </si>
+  <si>
+    <t>Luftblasen mit Finger fühlbar an der Vergussoberfläche</t>
+  </si>
+  <si>
+    <t>Offene Luftblaen</t>
+  </si>
+  <si>
+    <t>Luftblasen über dem LED-Band</t>
+  </si>
+  <si>
+    <t>Vergusshöhe mit Tiefenmesser falsch</t>
+  </si>
+  <si>
+    <t>Vergussmaterial über die LED gelaufen</t>
   </si>
 </sst>
 </file>
@@ -107,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -244,22 +262,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -275,6 +315,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -555,130 +608,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="8" width="23.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="1" spans="1:8" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="11">
         <v>43187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>0.70624999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="18">
+        <v>340</v>
+      </c>
+      <c r="C9" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1040</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B13" s="16">
         <v>370</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="C13" s="13">
+        <v>1080</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B14" s="16">
         <v>400</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="C14" s="14">
+        <v>1050</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B15" s="14">
         <v>350</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
+      <c r="C15" s="14">
+        <v>1048</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
